--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -176,10 +176,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${salesmanName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${validUserName}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -348,6 +344,32 @@
         <charset val="134"/>
       </rPr>
       <t>saleWay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>createUserName</t>
     </r>
     <r>
       <rPr>
@@ -845,7 +867,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -944,15 +966,15 @@
       <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>34</v>
+      <c r="H4" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -972,21 +994,21 @@
         <v>29</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1046,52 +1068,52 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1103,14 +1125,14 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>

--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>采购收货单</t>
   </si>
@@ -370,6 +370,32 @@
         <charset val="134"/>
       </rPr>
       <t>createUserName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>refFormNo</t>
     </r>
     <r>
       <rPr>
@@ -867,7 +893,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,8 +952,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>23</v>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -586,6 +586,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -604,7 +605,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,7 +894,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,7 +1115,7 @@
       <c r="G7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="8" t="s">

--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -328,10 +328,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I7:I7:I7+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>${</t>
     </r>
@@ -409,11 +405,15 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>${amount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -565,6 +565,7 @@
     <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -586,7 +587,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,7 +894,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,140 +908,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="13"/>
       <c r="J4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -1115,7 +1115,7 @@
       <c r="G7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>

--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>采购收货单</t>
   </si>
@@ -406,7 +406,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>单据金额：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${amount}</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I7:I7:I7+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -533,11 +540,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,10 +625,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,14 +1025,18 @@
         <v>37</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1159,7 +1222,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1170,7 +1233,7 @@
       <c r="P8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
@@ -1178,11 +1241,12 @@
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:P3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:P4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:P3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
